--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_first_since_2021.xlsx
@@ -842,6 +842,9 @@
       <c r="J11">
         <v>0.5637367041416466</v>
       </c>
+      <c r="K11">
+        <v>0.2970525035592049</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -871,6 +874,9 @@
       <c r="I12">
         <v>0.5679120330803951</v>
       </c>
+      <c r="J12">
+        <v>0.2858677898194339</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -897,6 +903,9 @@
       <c r="H13">
         <v>0.5520662240532093</v>
       </c>
+      <c r="I13">
+        <v>0.2775335613519331</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -920,6 +929,9 @@
       <c r="G14">
         <v>0.5207385776695821</v>
       </c>
+      <c r="H14">
+        <v>0.2743085116504074</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -940,6 +952,9 @@
       <c r="F15">
         <v>0.5331267034972994</v>
       </c>
+      <c r="G15">
+        <v>0.2534447081011285</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -957,8 +972,11 @@
       <c r="E16">
         <v>0.5482319751491519</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>0.2766837437271186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -971,8 +989,11 @@
       <c r="D17">
         <v>0.4852590561591889</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.2867219094086165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -982,18 +1003,27 @@
       <c r="C18">
         <v>0.5845771063412253</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18">
+        <v>0.1751453671933744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
         <v>0.6286367975806744</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19">
+        <v>0.1965658720679752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_first_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.9192316907193552</v>
+        <v>-2.520798295803975</v>
       </c>
       <c r="C2">
-        <v>-1.148324593739046</v>
+        <v>-1.209498772153247</v>
       </c>
       <c r="D2">
-        <v>-1.376360942196903</v>
+        <v>0.6650949949593515</v>
       </c>
       <c r="E2">
-        <v>0.5240065820382563</v>
+        <v>-0.05858795499538469</v>
       </c>
       <c r="F2">
-        <v>-0.0027599659219745</v>
+        <v>0.09291507488738329</v>
       </c>
       <c r="G2">
-        <v>0.09815006083404601</v>
+        <v>-0.1622689761646768</v>
       </c>
       <c r="H2">
-        <v>-0.1708892827759409</v>
+        <v>0.6645657133825503</v>
       </c>
       <c r="I2">
-        <v>0.665940954683469</v>
+        <v>0.5658615947808475</v>
       </c>
       <c r="J2">
-        <v>0.5666693334229809</v>
+        <v>0.2128828273432847</v>
       </c>
       <c r="K2">
-        <v>0.2125078032274952</v>
+        <v>0.3606851936599405</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.740092140117276</v>
+        <v>-0.801266318531477</v>
       </c>
       <c r="C3">
-        <v>-1.124737898310509</v>
+        <v>0.9167180388457457</v>
       </c>
       <c r="D3">
-        <v>0.442100528215121</v>
+        <v>-0.14049400881852</v>
       </c>
       <c r="E3">
-        <v>0.07233208345931114</v>
+        <v>0.1680071242686689</v>
       </c>
       <c r="F3">
-        <v>0.2040572213477698</v>
+        <v>-0.056361815650953</v>
       </c>
       <c r="G3">
-        <v>-0.1124726366172855</v>
+        <v>0.7229823595412057</v>
       </c>
       <c r="H3">
-        <v>0.7323796385135606</v>
+        <v>0.6323002786109391</v>
       </c>
       <c r="I3">
-        <v>0.6413512920338174</v>
+        <v>0.2875647859541212</v>
       </c>
       <c r="J3">
-        <v>0.2828210951284739</v>
+        <v>0.4309984855609192</v>
       </c>
       <c r="K3">
-        <v>0.4305191322240596</v>
+        <v>0.5879651212282146</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.230237110159324</v>
+        <v>0.8112188269969305</v>
       </c>
       <c r="C4">
-        <v>0.3159952442497632</v>
+        <v>-0.2665992927838778</v>
       </c>
       <c r="D4">
-        <v>0.2405801520925428</v>
+        <v>0.3362551929019006</v>
       </c>
       <c r="E4">
-        <v>0.2647213139516521</v>
+        <v>0.004302276952929285</v>
       </c>
       <c r="F4">
-        <v>-0.1013397972426526</v>
+        <v>0.7341151989158385</v>
       </c>
       <c r="G4">
-        <v>0.7952423898404911</v>
+        <v>0.6951630299378696</v>
       </c>
       <c r="H4">
-        <v>0.6987028198275607</v>
+        <v>0.3449163137478644</v>
       </c>
       <c r="I4">
-        <v>0.3273262721328529</v>
+        <v>0.4755036625652983</v>
       </c>
       <c r="J4">
-        <v>0.4815930032504782</v>
+        <v>0.6390389922546331</v>
       </c>
       <c r="K4">
-        <v>0.6412615601838532</v>
+        <v>0.1406021036577823</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.2884453755979755</v>
+        <v>-0.8710399126316165</v>
       </c>
       <c r="C5">
-        <v>0.1763767747378494</v>
+        <v>0.2720518155472072</v>
       </c>
       <c r="D5">
-        <v>0.5562686220088688</v>
+        <v>0.2958495850101461</v>
       </c>
       <c r="E5">
-        <v>-0.1390466733285862</v>
+        <v>0.6964083228299049</v>
       </c>
       <c r="F5">
-        <v>0.78665836976703</v>
+        <v>0.6865790098644085</v>
       </c>
       <c r="G5">
-        <v>0.7824438974249289</v>
+        <v>0.4286573913452327</v>
       </c>
       <c r="H5">
-        <v>0.3621534170608979</v>
+        <v>0.5103308074933433</v>
       </c>
       <c r="I5">
-        <v>0.5081573863027752</v>
+        <v>0.6656033753069301</v>
       </c>
       <c r="J5">
-        <v>0.686760400930452</v>
+        <v>0.1861009444043812</v>
       </c>
       <c r="K5">
-        <v>0.1781580448571292</v>
+        <v>0.4585159253925983</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.08873594589893813</v>
+        <v>0.1844109867082959</v>
       </c>
       <c r="C6">
-        <v>0.5038494199792003</v>
+        <v>0.2434303829804775</v>
       </c>
       <c r="D6">
-        <v>-0.0804002763435806</v>
+        <v>0.7550547198149107</v>
       </c>
       <c r="E6">
-        <v>0.7915875151041314</v>
+        <v>0.6915081552015099</v>
       </c>
       <c r="F6">
-        <v>0.7713506143760337</v>
+        <v>0.4175641082963374</v>
       </c>
       <c r="G6">
-        <v>0.3749201162859844</v>
+        <v>0.5230975067184298</v>
       </c>
       <c r="H6">
-        <v>0.5168869453501342</v>
+        <v>0.6743329343542892</v>
       </c>
       <c r="I6">
-        <v>0.6892623450793038</v>
+        <v>0.188602888553233</v>
       </c>
       <c r="J6">
-        <v>0.1844339823288103</v>
+        <v>0.4647918628642795</v>
       </c>
       <c r="K6">
-        <v>0.4621062954844631</v>
+        <v>0.2901314376394514</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.526277399612209</v>
+        <v>0.2658583626134861</v>
       </c>
       <c r="C7">
-        <v>-0.07779673678113191</v>
+        <v>0.7576582593773593</v>
       </c>
       <c r="D7">
-        <v>0.7695198294501161</v>
+        <v>0.6694404695474946</v>
       </c>
       <c r="E7">
-        <v>0.7653686340716788</v>
+        <v>0.4115821279919825</v>
       </c>
       <c r="F7">
-        <v>0.3695768661035733</v>
+        <v>0.5177542565360187</v>
       </c>
       <c r="G7">
-        <v>0.506518411979768</v>
+        <v>0.663964400983923</v>
       </c>
       <c r="H7">
-        <v>0.68078502295568</v>
+        <v>0.1801255664296092</v>
       </c>
       <c r="I7">
-        <v>0.1766616740219995</v>
+        <v>0.4570195545574687</v>
       </c>
       <c r="J7">
-        <v>0.4534823219514945</v>
+        <v>0.2815074641064828</v>
       </c>
       <c r="K7">
-        <v>0.2839431369332225</v>
+        <v>0.589805676679554</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.05637216532391182</v>
+        <v>0.7790828308345794</v>
       </c>
       <c r="C8">
-        <v>0.8896976782493284</v>
+        <v>0.7896183183467069</v>
       </c>
       <c r="D8">
-        <v>0.6761742896578956</v>
+        <v>0.3223877835781994</v>
       </c>
       <c r="E8">
-        <v>0.3398498622549955</v>
+        <v>0.4880272526874408</v>
       </c>
       <c r="F8">
-        <v>0.5151445320096781</v>
+        <v>0.6725905210138331</v>
       </c>
       <c r="G8">
-        <v>0.6548448495302448</v>
+        <v>0.154185393004174</v>
       </c>
       <c r="H8">
-        <v>0.153883110993772</v>
+        <v>0.4342409915292412</v>
       </c>
       <c r="I8">
-        <v>0.4398642868028766</v>
+        <v>0.267889428957865</v>
       </c>
       <c r="J8">
-        <v>0.2654223397480467</v>
+        <v>0.5712848794943781</v>
       </c>
       <c r="K8">
-        <v>0.570669944985061</v>
+        <v>-0.04166000770222517</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.847377045928939</v>
+        <v>0.7472976860263175</v>
       </c>
       <c r="C9">
-        <v>0.6469698158021624</v>
+        <v>0.2931833097224661</v>
       </c>
       <c r="D9">
-        <v>0.3368292624500743</v>
+        <v>0.4850066528825197</v>
       </c>
       <c r="E9">
-        <v>0.4962832483981977</v>
+        <v>0.6537292374023527</v>
       </c>
       <c r="F9">
-        <v>0.6345137184650405</v>
+        <v>0.1338542619389697</v>
       </c>
       <c r="G9">
-        <v>0.1393529555595242</v>
+        <v>0.4197108360949934</v>
       </c>
       <c r="H9">
-        <v>0.4232232413106087</v>
+        <v>0.251248383465597</v>
       </c>
       <c r="I9">
-        <v>0.2478384943192965</v>
+        <v>0.553701034065628</v>
       </c>
       <c r="J9">
-        <v>0.5541960614550182</v>
+        <v>-0.05813389123226798</v>
       </c>
       <c r="K9">
-        <v>-0.05728328644410208</v>
+        <v>0.6310880987550094</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.9871675564200725</v>
+        <v>0.6333810503403763</v>
       </c>
       <c r="C10">
-        <v>0.4122003242340114</v>
+        <v>0.5603777146664568</v>
       </c>
       <c r="D10">
-        <v>0.3051899620851986</v>
+        <v>0.4626359510893536</v>
       </c>
       <c r="E10">
-        <v>0.6592076310517737</v>
+        <v>0.1585481745257029</v>
       </c>
       <c r="F10">
-        <v>0.1487323591158202</v>
+        <v>0.4290902396512893</v>
       </c>
       <c r="G10">
-        <v>0.3684124426992176</v>
+        <v>0.196437584854206</v>
       </c>
       <c r="H10">
-        <v>0.2289444034306267</v>
+        <v>0.5348069431769582</v>
       </c>
       <c r="I10">
-        <v>0.5393320606399725</v>
+        <v>-0.07299789204731372</v>
       </c>
       <c r="J10">
-        <v>-0.0859949970734728</v>
+        <v>0.6023763881256388</v>
       </c>
       <c r="K10">
-        <v>0.6071339948549791</v>
+        <v>0.3304428394308724</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,34 +816,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.862895196224262</v>
+        <v>1.011072586656707</v>
       </c>
       <c r="C11">
-        <v>0.352300664297557</v>
+        <v>0.509746653301712</v>
       </c>
       <c r="D11">
-        <v>0.4189244002609654</v>
+        <v>-0.08173505626510533</v>
       </c>
       <c r="E11">
-        <v>0.184677440181683</v>
+        <v>0.4650353207171521</v>
       </c>
       <c r="F11">
-        <v>0.3663616852596248</v>
+        <v>0.1943868274146131</v>
       </c>
       <c r="G11">
-        <v>0.1523761639945965</v>
+        <v>0.458238703740928</v>
       </c>
       <c r="H11">
-        <v>0.511932666264689</v>
+        <v>-0.1003972864225971</v>
       </c>
       <c r="I11">
-        <v>-0.1122840472711982</v>
+        <v>0.5760873379279133</v>
       </c>
       <c r="J11">
-        <v>0.5637367041416466</v>
-      </c>
-      <c r="K11">
-        <v>0.2970525035592049</v>
+        <v>0.2870455487175398</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -851,31 +848,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.6646262512210954</v>
+        <v>0.8220722402252505</v>
       </c>
       <c r="C12">
-        <v>0.5522131399964898</v>
+        <v>0.051553683470419</v>
       </c>
       <c r="D12">
-        <v>0.005599018365491398</v>
+        <v>0.2859568989009605</v>
       </c>
       <c r="E12">
-        <v>0.394555924030192</v>
+        <v>0.2225810661851803</v>
       </c>
       <c r="F12">
-        <v>0.18840147518699</v>
+        <v>0.4942640149333215</v>
       </c>
       <c r="G12">
-        <v>0.4743910960604755</v>
+        <v>-0.1379388566268107</v>
       </c>
       <c r="H12">
-        <v>-0.1178263863585594</v>
+        <v>0.5705449988405521</v>
       </c>
       <c r="I12">
-        <v>0.5679120330803951</v>
-      </c>
-      <c r="J12">
-        <v>0.2858677898194339</v>
+        <v>0.2912208776562884</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -883,28 +877,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.787803631104331</v>
+        <v>0.2871441745782602</v>
       </c>
       <c r="C13">
-        <v>0.09027775923980097</v>
+        <v>0.3706356397752701</v>
       </c>
       <c r="D13">
-        <v>0.2489555573964748</v>
+        <v>0.07698069955146319</v>
       </c>
       <c r="E13">
-        <v>0.1983552180462326</v>
+        <v>0.5042177577925642</v>
       </c>
       <c r="F13">
-        <v>0.4897562657600204</v>
+        <v>-0.1225736869272658</v>
       </c>
       <c r="G13">
-        <v>-0.1566747213159825</v>
+        <v>0.5316966638831291</v>
       </c>
       <c r="H13">
-        <v>0.5520662240532093</v>
-      </c>
-      <c r="I13">
-        <v>0.2775335613519331</v>
+        <v>0.2753750686291025</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -912,25 +903,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.4013019457211838</v>
+        <v>0.6816598262566529</v>
       </c>
       <c r="C14">
-        <v>0.36604433180767</v>
+        <v>0.1940694739626584</v>
       </c>
       <c r="D14">
-        <v>0.03589107659666579</v>
+        <v>0.3417536163429973</v>
       </c>
       <c r="E14">
-        <v>0.518715216225222</v>
+        <v>-0.0936147364620642</v>
       </c>
       <c r="F14">
-        <v>-0.1209318488610789</v>
+        <v>0.5674395363380327</v>
       </c>
       <c r="G14">
-        <v>0.5207385776695821</v>
-      </c>
-      <c r="H14">
-        <v>0.2743085116504074</v>
+        <v>0.2440474222454754</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,22 +926,19 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6128695092117844</v>
+        <v>0.4408946513667728</v>
       </c>
       <c r="C15">
-        <v>0.0535469441345553</v>
+        <v>0.3594094838808868</v>
       </c>
       <c r="D15">
-        <v>0.4240929771142275</v>
+        <v>-0.1882369755730587</v>
       </c>
       <c r="E15">
-        <v>-0.0887144606125988</v>
+        <v>0.5996569245865127</v>
       </c>
       <c r="F15">
-        <v>0.5331267034972994</v>
-      </c>
-      <c r="G15">
-        <v>0.2534447081011285</v>
+        <v>0.2564355480731927</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,69 +946,54 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2932233035507672</v>
+        <v>0.5990858432970987</v>
       </c>
       <c r="C16">
-        <v>0.509117220583441</v>
+        <v>-0.1032127321038452</v>
       </c>
       <c r="D16">
-        <v>-0.2051990389706129</v>
+        <v>0.4831723462284986</v>
       </c>
       <c r="E16">
-        <v>0.5482319751491519</v>
-      </c>
-      <c r="F16">
-        <v>0.2766837437271186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.2715408197250452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.6739772976175282</v>
+        <v>0.0616473449302421</v>
       </c>
       <c r="C17">
-        <v>-0.1916617667226967</v>
+        <v>0.4967096184764148</v>
       </c>
       <c r="D17">
-        <v>0.4852590561591889</v>
-      </c>
-      <c r="E17">
-        <v>0.2867219094086165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.2085679007350822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.06218727514271133</v>
+        <v>0.7505586603418228</v>
       </c>
       <c r="C18">
-        <v>0.5845771063412253</v>
-      </c>
-      <c r="D18">
-        <v>0.1751453671933744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.3078859509171186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.6286367975806744</v>
-      </c>
-      <c r="C19">
-        <v>0.1965658720679752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.3519456421565676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_first_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-2.520798295803975</v>
+        <v>0.9192316907193552</v>
       </c>
       <c r="C2">
-        <v>-1.209498772153247</v>
+        <v>-1.148324593739046</v>
       </c>
       <c r="D2">
-        <v>0.6650949949593515</v>
+        <v>-1.376360942196903</v>
       </c>
       <c r="E2">
-        <v>-0.05858795499538469</v>
+        <v>0.5240065820382563</v>
       </c>
       <c r="F2">
-        <v>0.09291507488738329</v>
+        <v>-0.0027599659219745</v>
       </c>
       <c r="G2">
-        <v>-0.1622689761646768</v>
+        <v>0.09815006083404601</v>
       </c>
       <c r="H2">
-        <v>0.6645657133825503</v>
+        <v>-0.1708892827759409</v>
       </c>
       <c r="I2">
-        <v>0.5658615947808475</v>
+        <v>0.665940954683469</v>
       </c>
       <c r="J2">
-        <v>0.2128828273432847</v>
+        <v>0.5666693334229809</v>
       </c>
       <c r="K2">
-        <v>0.3606851936599405</v>
+        <v>0.2125078032274952</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.801266318531477</v>
+        <v>-0.740092140117276</v>
       </c>
       <c r="C3">
-        <v>0.9167180388457457</v>
+        <v>-1.124737898310509</v>
       </c>
       <c r="D3">
-        <v>-0.14049400881852</v>
+        <v>0.442100528215121</v>
       </c>
       <c r="E3">
-        <v>0.1680071242686689</v>
+        <v>0.07233208345931114</v>
       </c>
       <c r="F3">
-        <v>-0.056361815650953</v>
+        <v>0.2040572213477698</v>
       </c>
       <c r="G3">
-        <v>0.7229823595412057</v>
+        <v>-0.1124726366172855</v>
       </c>
       <c r="H3">
-        <v>0.6323002786109391</v>
+        <v>0.7323796385135606</v>
       </c>
       <c r="I3">
-        <v>0.2875647859541212</v>
+        <v>0.6413512920338174</v>
       </c>
       <c r="J3">
-        <v>0.4309984855609192</v>
+        <v>0.2828210951284739</v>
       </c>
       <c r="K3">
-        <v>0.5879651212282146</v>
+        <v>0.4305191322240596</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.8112188269969305</v>
+        <v>-1.230237110159324</v>
       </c>
       <c r="C4">
-        <v>-0.2665992927838778</v>
+        <v>0.3159952442497632</v>
       </c>
       <c r="D4">
-        <v>0.3362551929019006</v>
+        <v>0.2405801520925428</v>
       </c>
       <c r="E4">
-        <v>0.004302276952929285</v>
+        <v>0.2647213139516521</v>
       </c>
       <c r="F4">
-        <v>0.7341151989158385</v>
+        <v>-0.1013397972426526</v>
       </c>
       <c r="G4">
-        <v>0.6951630299378696</v>
+        <v>0.7952423898404911</v>
       </c>
       <c r="H4">
-        <v>0.3449163137478644</v>
+        <v>0.6987028198275607</v>
       </c>
       <c r="I4">
-        <v>0.4755036625652983</v>
+        <v>0.3273262721328529</v>
       </c>
       <c r="J4">
-        <v>0.6390389922546331</v>
+        <v>0.4815930032504782</v>
       </c>
       <c r="K4">
-        <v>0.1406021036577823</v>
+        <v>0.6412615601838532</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.8710399126316165</v>
+        <v>-0.2884453755979755</v>
       </c>
       <c r="C5">
-        <v>0.2720518155472072</v>
+        <v>0.1763767747378494</v>
       </c>
       <c r="D5">
-        <v>0.2958495850101461</v>
+        <v>0.5562686220088688</v>
       </c>
       <c r="E5">
-        <v>0.6964083228299049</v>
+        <v>-0.1390466733285862</v>
       </c>
       <c r="F5">
-        <v>0.6865790098644085</v>
+        <v>0.78665836976703</v>
       </c>
       <c r="G5">
-        <v>0.4286573913452327</v>
+        <v>0.7824438974249289</v>
       </c>
       <c r="H5">
-        <v>0.5103308074933433</v>
+        <v>0.3621534170608979</v>
       </c>
       <c r="I5">
-        <v>0.6656033753069301</v>
+        <v>0.5081573863027752</v>
       </c>
       <c r="J5">
-        <v>0.1861009444043812</v>
+        <v>0.686760400930452</v>
       </c>
       <c r="K5">
-        <v>0.4585159253925983</v>
+        <v>0.1781580448571292</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1844109867082959</v>
+        <v>0.08873594589893813</v>
       </c>
       <c r="C6">
-        <v>0.2434303829804775</v>
+        <v>0.5038494199792003</v>
       </c>
       <c r="D6">
-        <v>0.7550547198149107</v>
+        <v>-0.0804002763435806</v>
       </c>
       <c r="E6">
-        <v>0.6915081552015099</v>
+        <v>0.7915875151041314</v>
       </c>
       <c r="F6">
-        <v>0.4175641082963374</v>
+        <v>0.7713506143760337</v>
       </c>
       <c r="G6">
-        <v>0.5230975067184298</v>
+        <v>0.3749201162859844</v>
       </c>
       <c r="H6">
-        <v>0.6743329343542892</v>
+        <v>0.5168869453501342</v>
       </c>
       <c r="I6">
-        <v>0.188602888553233</v>
+        <v>0.6892623450793038</v>
       </c>
       <c r="J6">
-        <v>0.4647918628642795</v>
+        <v>0.1844339823288103</v>
       </c>
       <c r="K6">
-        <v>0.2901314376394514</v>
+        <v>0.4621062954844631</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2658583626134861</v>
+        <v>0.526277399612209</v>
       </c>
       <c r="C7">
-        <v>0.7576582593773593</v>
+        <v>-0.07779673678113191</v>
       </c>
       <c r="D7">
-        <v>0.6694404695474946</v>
+        <v>0.7695198294501161</v>
       </c>
       <c r="E7">
-        <v>0.4115821279919825</v>
+        <v>0.7653686340716788</v>
       </c>
       <c r="F7">
-        <v>0.5177542565360187</v>
+        <v>0.3695768661035733</v>
       </c>
       <c r="G7">
-        <v>0.663964400983923</v>
+        <v>0.506518411979768</v>
       </c>
       <c r="H7">
-        <v>0.1801255664296092</v>
+        <v>0.68078502295568</v>
       </c>
       <c r="I7">
-        <v>0.4570195545574687</v>
+        <v>0.1766616740219995</v>
       </c>
       <c r="J7">
-        <v>0.2815074641064828</v>
+        <v>0.4534823219514945</v>
       </c>
       <c r="K7">
-        <v>0.589805676679554</v>
+        <v>0.2839431369332225</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.7790828308345794</v>
+        <v>-0.05637216532391182</v>
       </c>
       <c r="C8">
-        <v>0.7896183183467069</v>
+        <v>0.8896976782493284</v>
       </c>
       <c r="D8">
-        <v>0.3223877835781994</v>
+        <v>0.6761742896578956</v>
       </c>
       <c r="E8">
-        <v>0.4880272526874408</v>
+        <v>0.3398498622549955</v>
       </c>
       <c r="F8">
-        <v>0.6725905210138331</v>
+        <v>0.5151445320096781</v>
       </c>
       <c r="G8">
-        <v>0.154185393004174</v>
+        <v>0.6548448495302448</v>
       </c>
       <c r="H8">
-        <v>0.4342409915292412</v>
+        <v>0.153883110993772</v>
       </c>
       <c r="I8">
-        <v>0.267889428957865</v>
+        <v>0.4398642868028766</v>
       </c>
       <c r="J8">
-        <v>0.5712848794943781</v>
+        <v>0.2654223397480467</v>
       </c>
       <c r="K8">
-        <v>-0.04166000770222517</v>
+        <v>0.570669944985061</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7472976860263175</v>
+        <v>0.847377045928939</v>
       </c>
       <c r="C9">
-        <v>0.2931833097224661</v>
+        <v>0.6469698158021624</v>
       </c>
       <c r="D9">
-        <v>0.4850066528825197</v>
+        <v>0.3368292624500743</v>
       </c>
       <c r="E9">
-        <v>0.6537292374023527</v>
+        <v>0.4962832483981977</v>
       </c>
       <c r="F9">
-        <v>0.1338542619389697</v>
+        <v>0.6345137184650405</v>
       </c>
       <c r="G9">
-        <v>0.4197108360949934</v>
+        <v>0.1393529555595242</v>
       </c>
       <c r="H9">
-        <v>0.251248383465597</v>
+        <v>0.4232232413106087</v>
       </c>
       <c r="I9">
-        <v>0.553701034065628</v>
+        <v>0.2478384943192965</v>
       </c>
       <c r="J9">
-        <v>-0.05813389123226798</v>
+        <v>0.5541960614550182</v>
       </c>
       <c r="K9">
-        <v>0.6310880987550094</v>
+        <v>-0.05728328644410208</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.6333810503403763</v>
+        <v>0.9871675564200725</v>
       </c>
       <c r="C10">
-        <v>0.5603777146664568</v>
+        <v>0.4122003242340114</v>
       </c>
       <c r="D10">
-        <v>0.4626359510893536</v>
+        <v>0.3051899620851986</v>
       </c>
       <c r="E10">
-        <v>0.1585481745257029</v>
+        <v>0.6592076310517737</v>
       </c>
       <c r="F10">
-        <v>0.4290902396512893</v>
+        <v>0.1487323591158202</v>
       </c>
       <c r="G10">
-        <v>0.196437584854206</v>
+        <v>0.3684124426992176</v>
       </c>
       <c r="H10">
-        <v>0.5348069431769582</v>
+        <v>0.2289444034306267</v>
       </c>
       <c r="I10">
-        <v>-0.07299789204731372</v>
+        <v>0.5393320606399725</v>
       </c>
       <c r="J10">
-        <v>0.6023763881256388</v>
+        <v>-0.0859949970734728</v>
       </c>
       <c r="K10">
-        <v>0.3304428394308724</v>
+        <v>0.6071339948549791</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,31 +816,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1.011072586656707</v>
+        <v>0.862895196224262</v>
       </c>
       <c r="C11">
-        <v>0.509746653301712</v>
+        <v>0.352300664297557</v>
       </c>
       <c r="D11">
-        <v>-0.08173505626510533</v>
+        <v>0.4189244002609654</v>
       </c>
       <c r="E11">
-        <v>0.4650353207171521</v>
+        <v>0.184677440181683</v>
       </c>
       <c r="F11">
-        <v>0.1943868274146131</v>
+        <v>0.3663616852596248</v>
       </c>
       <c r="G11">
-        <v>0.458238703740928</v>
+        <v>0.1523761639945965</v>
       </c>
       <c r="H11">
-        <v>-0.1003972864225971</v>
+        <v>0.511932666264689</v>
       </c>
       <c r="I11">
-        <v>0.5760873379279133</v>
+        <v>-0.1122840472711982</v>
       </c>
       <c r="J11">
-        <v>0.2870455487175398</v>
+        <v>0.5637367041416466</v>
+      </c>
+      <c r="K11">
+        <v>0.2970525035592049</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -848,28 +851,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.8220722402252505</v>
+        <v>0.6646262512210954</v>
       </c>
       <c r="C12">
-        <v>0.051553683470419</v>
+        <v>0.5522131399964898</v>
       </c>
       <c r="D12">
-        <v>0.2859568989009605</v>
+        <v>0.005599018365491398</v>
       </c>
       <c r="E12">
-        <v>0.2225810661851803</v>
+        <v>0.394555924030192</v>
       </c>
       <c r="F12">
-        <v>0.4942640149333215</v>
+        <v>0.18840147518699</v>
       </c>
       <c r="G12">
-        <v>-0.1379388566268107</v>
+        <v>0.4743910960604755</v>
       </c>
       <c r="H12">
-        <v>0.5705449988405521</v>
+        <v>-0.1178263863585594</v>
       </c>
       <c r="I12">
-        <v>0.2912208776562884</v>
+        <v>0.5679120330803951</v>
+      </c>
+      <c r="J12">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -877,25 +883,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2871441745782602</v>
+        <v>0.787803631104331</v>
       </c>
       <c r="C13">
-        <v>0.3706356397752701</v>
+        <v>0.09027775923980097</v>
       </c>
       <c r="D13">
-        <v>0.07698069955146319</v>
+        <v>0.2489555573964748</v>
       </c>
       <c r="E13">
-        <v>0.5042177577925642</v>
+        <v>0.1983552180462326</v>
       </c>
       <c r="F13">
-        <v>-0.1225736869272658</v>
+        <v>0.4897562657600204</v>
       </c>
       <c r="G13">
-        <v>0.5316966638831291</v>
+        <v>-0.1566747213159825</v>
       </c>
       <c r="H13">
-        <v>0.2753750686291025</v>
+        <v>0.5520662240532093</v>
+      </c>
+      <c r="I13">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,22 +912,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6816598262566529</v>
+        <v>0.4013019457211838</v>
       </c>
       <c r="C14">
-        <v>0.1940694739626584</v>
+        <v>0.36604433180767</v>
       </c>
       <c r="D14">
-        <v>0.3417536163429973</v>
+        <v>0.03589107659666579</v>
       </c>
       <c r="E14">
-        <v>-0.0936147364620642</v>
+        <v>0.518715216225222</v>
       </c>
       <c r="F14">
-        <v>0.5674395363380327</v>
+        <v>-0.1209318488610789</v>
       </c>
       <c r="G14">
-        <v>0.2440474222454754</v>
+        <v>0.5207385776695821</v>
+      </c>
+      <c r="H14">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,19 +938,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.4408946513667728</v>
+        <v>0.6128695092117844</v>
       </c>
       <c r="C15">
-        <v>0.3594094838808868</v>
+        <v>0.0535469441345553</v>
       </c>
       <c r="D15">
-        <v>-0.1882369755730587</v>
+        <v>0.4240929771142275</v>
       </c>
       <c r="E15">
-        <v>0.5996569245865127</v>
+        <v>-0.0887144606125988</v>
       </c>
       <c r="F15">
-        <v>0.2564355480731927</v>
+        <v>0.5331267034972994</v>
+      </c>
+      <c r="G15">
+        <v>0.2534447081011285</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -946,54 +961,69 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5990858432970987</v>
+        <v>0.2932233035507672</v>
       </c>
       <c r="C16">
-        <v>-0.1032127321038452</v>
+        <v>0.509117220583441</v>
       </c>
       <c r="D16">
-        <v>0.4831723462284986</v>
+        <v>-0.2051990389706129</v>
       </c>
       <c r="E16">
-        <v>0.2715408197250452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.5482319751491519</v>
+      </c>
+      <c r="F16">
+        <v>0.2766837437271186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.0616473449302421</v>
+        <v>0.6739772976175282</v>
       </c>
       <c r="C17">
-        <v>0.4967096184764148</v>
+        <v>-0.1916617667226967</v>
       </c>
       <c r="D17">
-        <v>0.2085679007350822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.4852590561591889</v>
+      </c>
+      <c r="E17">
+        <v>0.2867219094086165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.7505586603418228</v>
+        <v>0.06218727514271133</v>
       </c>
       <c r="C18">
-        <v>0.3078859509171186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.5845771063412253</v>
+      </c>
+      <c r="D18">
+        <v>0.1751453671933744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3519456421565676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.6286367975806744</v>
+      </c>
+      <c r="C19">
+        <v>0.1965658720679752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>
